--- a/xlsx/埃及_intext.xlsx
+++ b/xlsx/埃及_intext.xlsx
@@ -29,7 +29,7 @@
     <t>埃及 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_管理_埃及</t>
+    <t>体育运动_体育运动_宦官_埃及</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A%E5%9C%8B%E6%97%97</t>
